--- a/URS/DbLayouts/XX-系統/TxTeller.xlsx
+++ b/URS/DbLayouts/XX-系統/TxTeller.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>停止使用,改記錄於TxTellerAuth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllowFg</t>
+  </si>
+  <si>
+    <t>授權等級</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦:0
+主管:1-9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +926,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,7 +941,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1235,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1253,10 +1268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="7" t="s">
         <v>95</v>
       </c>
@@ -1268,8 +1283,8 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
@@ -1281,10 +1296,10 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="7" t="s">
         <v>93</v>
       </c>
@@ -1294,10 +1309,10 @@
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
@@ -1305,10 +1320,10 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
@@ -1316,10 +1331,10 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -1327,10 +1342,10 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
@@ -1401,7 +1416,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <f t="shared" ref="A11:A40" si="0">A10+1</f>
+        <f t="shared" ref="A11:A41" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1463,16 +1478,16 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>31</v>
@@ -1481,106 +1496,106 @@
         <v>17</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="17" t="s">
-        <v>56</v>
+      <c r="G14" s="36" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <f>A18+1</f>
+        <v>11</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C19" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>31</v>
@@ -1588,64 +1603,66 @@
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
+      <c r="B20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>13</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>103</v>
+      <c r="B21" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -1655,57 +1672,57 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <f t="shared" si="0"/>
+        <f>A22+1</f>
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="18">
-        <v>60</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
-        <f t="shared" si="0"/>
+        <f>A23+1</f>
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E25" s="18">
         <v>8</v>
@@ -1713,60 +1730,58 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <f t="shared" si="0"/>
+        <f>A25+1</f>
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="18">
+        <v>8</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <f t="shared" si="0"/>
+        <f>A26+1</f>
         <v>19</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>74</v>
+      <c r="B27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="35" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <f t="shared" si="0"/>
+        <f>A27+1</f>
         <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>30</v>
@@ -1775,20 +1790,20 @@
         <v>20</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <f t="shared" si="0"/>
+        <f>A28+1</f>
         <v>21</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>30</v>
@@ -1797,20 +1812,20 @@
         <v>20</v>
       </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>22</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>30</v>
@@ -1819,20 +1834,20 @@
         <v>20</v>
       </c>
       <c r="F30" s="18"/>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
         <v>23</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>30</v>
@@ -1841,20 +1856,20 @@
         <v>20</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>24</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>30</v>
@@ -1863,20 +1878,20 @@
         <v>20</v>
       </c>
       <c r="F32" s="18"/>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>25</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>30</v>
@@ -1885,20 +1900,20 @@
         <v>20</v>
       </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>26</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>30</v>
@@ -1907,20 +1922,20 @@
         <v>20</v>
       </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <f t="shared" si="0"/>
+        <f>A34+1</f>
         <v>27</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>30</v>
@@ -1929,20 +1944,20 @@
         <v>20</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
-        <f t="shared" si="0"/>
+        <f>A35+1</f>
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>30</v>
@@ -1951,75 +1966,97 @@
         <v>20</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <f t="shared" si="0"/>
+        <f>A36+1</f>
         <v>29</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>44</v>
+      <c r="B37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <f t="shared" si="0"/>
+        <f>A37+1</f>
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="18">
-        <v>6</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <f t="shared" si="0"/>
+        <f>A38+1</f>
         <v>31</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="E39" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <f>A40+1</f>
+        <v>33</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="18">
         <v>6</v>
       </c>
     </row>
